--- a/Data/Results/YelpNYC/Classifiers Performance on YelpNYC.xlsx
+++ b/Data/Results/YelpNYC/Classifiers Performance on YelpNYC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ajay Rastogi\Desktop\Extended Version (Journal)\PeerJ\Data\Results\YelpNYC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ajay Rastogi\Desktop\Extended Version (Journal)\JDIS\Updated Code (without per included)\Data\Results\YelpNYC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B4EC874-F677-4D9A-AB17-B4464F01FB21}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C266515-2385-4923-AFC9-AA9D190D73CF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SVM" sheetId="1" r:id="rId1"/>
@@ -435,7 +435,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J3" sqref="J3:L6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -496,10 +498,10 @@
         <v>0.65660030368829103</v>
       </c>
       <c r="J3">
-        <v>0.72193739182343797</v>
+        <v>0.88399432107077447</v>
       </c>
       <c r="L3">
-        <v>0.66710427724812427</v>
+        <v>0.83452062717762554</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -519,10 +521,10 @@
         <v>0.527074601261315</v>
       </c>
       <c r="J4">
-        <v>0.86666666666666659</v>
+        <v>0.84749425287356317</v>
       </c>
       <c r="L4">
-        <v>0.99285714285714288</v>
+        <v>0.33967816091954017</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -542,10 +544,10 @@
         <v>0.60525267095319013</v>
       </c>
       <c r="J5">
-        <v>0.5678434075870209</v>
+        <v>0.78653582326102522</v>
       </c>
       <c r="L5">
-        <v>0.34462319860477919</v>
+        <v>0.61776666736558294</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -565,10 +567,10 @@
         <v>0.60694760954058591</v>
       </c>
       <c r="J6">
-        <v>0.62560386473429941</v>
+        <v>0.7880187025131502</v>
       </c>
       <c r="L6">
-        <v>0.52426501035196682</v>
+        <v>0.66014026884862653</v>
       </c>
     </row>
   </sheetData>
@@ -580,7 +582,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J3" sqref="J3:L6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -641,10 +645,10 @@
         <v>0.6444867695892208</v>
       </c>
       <c r="J3">
-        <v>0.7318073011463232</v>
+        <v>0.88765126078314582</v>
       </c>
       <c r="L3">
-        <v>0.6582405352051961</v>
+        <v>0.83676015910451818</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -664,10 +668,10 @@
         <v>0.50733948388108618</v>
       </c>
       <c r="J4">
-        <v>0.72142857142857142</v>
+        <v>0.82822988505747119</v>
       </c>
       <c r="L4">
-        <v>0.75833333333333319</v>
+        <v>0.68445977011494241</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -687,10 +691,10 @@
         <v>0.5897753114404154</v>
       </c>
       <c r="J5">
-        <v>0.66372216577570342</v>
+        <v>0.80163916676381886</v>
       </c>
       <c r="L5">
-        <v>0.49362294391079908</v>
+        <v>0.73693493294305024</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -710,10 +714,10 @@
         <v>0.59177232591646434</v>
       </c>
       <c r="J6">
-        <v>0.66854382332643214</v>
+        <v>0.80247808299240209</v>
       </c>
       <c r="L6">
-        <v>0.53249137336093866</v>
+        <v>0.73855055523085922</v>
       </c>
     </row>
   </sheetData>
@@ -725,7 +729,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3:L6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -786,10 +792,10 @@
         <v>0.67085277387577569</v>
       </c>
       <c r="J3">
-        <v>0.74009466187745387</v>
+        <v>0.88964921510298911</v>
       </c>
       <c r="L3">
-        <v>0.65651426241634459</v>
+        <v>0.83457442163432438</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -809,10 +815,10 @@
         <v>0.60897255617184998</v>
       </c>
       <c r="J4">
-        <v>0.6964285714285714</v>
+        <v>0.81866666666666676</v>
       </c>
       <c r="L4">
-        <v>0.68571428571428583</v>
+        <v>0.67701149425287355</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -832,10 +838,10 @@
         <v>0.61730366556900607</v>
       </c>
       <c r="J5">
-        <v>0.6676070172802564</v>
+        <v>0.79740722299795896</v>
       </c>
       <c r="L5">
-        <v>0.50373399358441073</v>
+        <v>0.70486065517141594</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -855,10 +861,10 @@
         <v>0.61796844253440797</v>
       </c>
       <c r="J6">
-        <v>0.6711111111111111</v>
+        <v>0.79836353009935712</v>
       </c>
       <c r="L6">
-        <v>0.55307108350586609</v>
+        <v>0.71095265926358864</v>
       </c>
     </row>
   </sheetData>
